--- a/Entscheidungsmatrix.xlsx
+++ b/Entscheidungsmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3843E8A8-4688-44FC-9DD0-44AE1569BDE9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F273CDC-4EC8-4A26-A130-8244D23CBDD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Entschedungsmatrix</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>PoppyProjekt</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +621,7 @@
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -629,7 +632,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -648,8 +651,12 @@
         <v>16</v>
       </c>
       <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -672,8 +679,14 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -695,8 +708,13 @@
         <f>G4*($B4/100)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+      <c r="J4" s="15">
+        <f>I4*($B4/100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,8 +736,13 @@
         <f>G5*($B5/100)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="14"/>
+      <c r="J5" s="15">
+        <f>I5*($B5/100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -741,8 +764,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="14"/>
+      <c r="J6" s="15">
+        <f t="shared" ref="J6:J11" si="2">I6*($B6/100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -764,8 +792,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="14"/>
+      <c r="J7" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -787,8 +820,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,8 +848,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="14"/>
+      <c r="J9" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -833,8 +876,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -856,8 +904,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="17"/>
+      <c r="J11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -877,13 +930,19 @@
         <f>SUM(H4:H11)</f>
         <v>0</v>
       </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18">
+        <f>SUM(J4:J11)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Entscheidungsmatrix.xlsx
+++ b/Entscheidungsmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F273CDC-4EC8-4A26-A130-8244D23CBDD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C2D091D-88ED-4BE6-8182-8E41D6EB7078}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -329,6 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -612,7 +613,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,22 +692,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="11">
+        <v>6</v>
+      </c>
       <c r="D4" s="12">
         <f>C4*(B4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2</v>
+      </c>
       <c r="F4" s="15">
         <f>E4*($B4/100)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>7</v>
+      </c>
       <c r="H4" s="15">
         <f>G4*($B4/100)</f>
-        <v>0</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="15">
@@ -719,22 +726,26 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14">
         <f t="shared" ref="D5:D11" si="0">C5*(B5/100)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14">
+        <v>7</v>
+      </c>
       <c r="F5" s="15">
         <f>E5*($B5/100)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
+        <v>2.1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>7</v>
+      </c>
       <c r="H5" s="15">
         <f>G5*($B5/100)</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="15">
@@ -747,22 +758,28 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C6" s="13">
+        <v>9</v>
+      </c>
       <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="14">
+        <v>9</v>
+      </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6:H11" si="1">E6*($B6/100)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="22">
+        <v>9</v>
+      </c>
       <c r="H6" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="15">
@@ -775,22 +792,28 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
+        <v>9</v>
+      </c>
       <c r="D7" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="22">
+        <v>9</v>
+      </c>
       <c r="F7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="22">
+        <v>9</v>
+      </c>
       <c r="H7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="15">
@@ -803,22 +826,28 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>9</v>
+      </c>
       <c r="D8" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="E8" s="22">
+        <v>9</v>
+      </c>
       <c r="F8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="G8" s="22">
+        <v>9</v>
+      </c>
       <c r="H8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="15">
@@ -831,22 +860,28 @@
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="13">
+        <v>7</v>
+      </c>
       <c r="D9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="E9" s="22">
+        <v>7</v>
+      </c>
       <c r="F9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="G9" s="22">
+        <v>7</v>
+      </c>
       <c r="H9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="15">
@@ -859,22 +894,28 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="13">
+        <v>9</v>
+      </c>
       <c r="D10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="E10" s="22">
+        <v>5</v>
+      </c>
       <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="22">
+        <v>5</v>
+      </c>
       <c r="H10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="15">
@@ -887,22 +928,28 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="16">
+        <v>5</v>
+      </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="17">
+        <v>7</v>
+      </c>
       <c r="F11" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G11" s="17">
+        <v>7</v>
+      </c>
       <c r="H11" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="19">
@@ -918,17 +965,17 @@
       <c r="C12" s="16"/>
       <c r="D12" s="17">
         <f>SUM(D4:D11)</f>
-        <v>0</v>
+        <v>5.3500000000000005</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18">
         <f>SUM(F4:F11)</f>
-        <v>0</v>
+        <v>7.0500000000000007</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="18">
         <f>SUM(H4:H11)</f>
-        <v>0</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="18">

--- a/Entscheidungsmatrix.xlsx
+++ b/Entscheidungsmatrix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C2D091D-88ED-4BE6-8182-8E41D6EB7078}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0000F51A-5408-47D3-909A-BF558EBBD320}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,13 +323,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,15 +623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -640,22 +640,22 @@
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -728,10 +728,12 @@
       <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13">
+        <v>6</v>
+      </c>
       <c r="D5" s="14">
         <f t="shared" ref="D5:D11" si="0">C5*(B5/100)</f>
-        <v>0</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="E5" s="14">
         <v>7</v>
@@ -774,7 +776,7 @@
         <f t="shared" ref="F6:H11" si="1">E6*($B6/100)</f>
         <v>0.9</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>9</v>
       </c>
       <c r="H6" s="15">
@@ -801,14 +803,14 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>9</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>9</v>
       </c>
       <c r="H7" s="15">
@@ -835,14 +837,14 @@
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="20">
         <v>9</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <v>9</v>
       </c>
       <c r="H8" s="15">
@@ -869,14 +871,14 @@
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>7</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <v>7</v>
       </c>
       <c r="H9" s="15">
@@ -903,14 +905,14 @@
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>5</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="20">
         <v>5</v>
       </c>
       <c r="H10" s="15">
@@ -965,7 +967,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="17">
         <f>SUM(D4:D11)</f>
-        <v>5.3500000000000005</v>
+        <v>7.15</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18">

--- a/Entscheidungsmatrix.xlsx
+++ b/Entscheidungsmatrix.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0000F51A-5408-47D3-909A-BF558EBBD320}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A4AEF9B4-8CC4-45F3-A9C2-CC3F81025D94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Kriterien</t>
   </si>
   <si>
-    <t>Prieß</t>
-  </si>
-  <si>
     <t>Druckzeit</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Preis</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,58 +638,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10">
         <v>5</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="16"/>
